--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value177.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value177.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.26936150839338</v>
+        <v>1.296772003173828</v>
       </c>
       <c r="B1">
-        <v>1.443656707647509</v>
+        <v>3.930430173873901</v>
       </c>
       <c r="C1">
-        <v>1.780243344021867</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>3.236570658826508</v>
+        <v>3.446487188339233</v>
       </c>
       <c r="E1">
-        <v>1.423461945503954</v>
+        <v>1.940884113311768</v>
       </c>
     </row>
   </sheetData>
